--- a/downloaded_files/CMPS202_Lecture-35674.xlsx
+++ b/downloaded_files/CMPS202_Lecture-35674.xlsx
@@ -177,6 +177,15 @@
     <x:t>GOURG</x:t>
   </x:si>
   <x:si>
+    <x:t>1210214</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حازم محمد عبد السلام لطفي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hazem mohamed abdelsalam lotfy</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240048</x:t>
   </x:si>
   <x:si>
@@ -315,15 +324,6 @@
     <x:t>Abdelrahman tarek mohamed rabie abdelsalam elsiad abouelnour</x:t>
   </x:si>
   <x:si>
-    <x:t>1220014</x:t>
-  </x:si>
-  <x:si>
-    <x:t>علاءالدين اسامه احمد علي احمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Alaa Eldin Usama Ahmed Ali</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240091</x:t>
   </x:si>
   <x:si>
@@ -546,6 +546,15 @@
     <x:t>Mariam Raafat Mohammed Farahat</x:t>
   </x:si>
   <x:si>
+    <x:t>1240186</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مريم هانى مصطفى جوده عبدالرازق</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maryam Hany Mostafa</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240371</x:t>
   </x:si>
   <x:si>
@@ -562,15 +571,6 @@
   </x:si>
   <x:si>
     <x:t>Moustafa Mohamed Hassan Mohamed Helmy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230260</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مصطفى محمد عبد الرازق مشالي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mostafa Mohamad Abdelrazik Mashaly</x:t>
   </x:si>
   <x:si>
     <x:t>1230262</x:t>
@@ -1249,7 +1249,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45909.8793661227</x:v>
+        <x:v>45927.4188121181</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1697,7 +1697,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.3064025463</x:v>
+        <x:v>45927.6616390857</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1729,7 +1729,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.664677662</x:v>
+        <x:v>45912.3064025463</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1761,7 +1761,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6651212616</x:v>
+        <x:v>45927.4241120023</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1793,7 +1793,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45912.3068809028</x:v>
+        <x:v>45907.6651212616</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1825,7 +1825,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45912.3074484954</x:v>
+        <x:v>45912.3068809028</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1853,9 +1853,11 @@
       <x:c r="C23" s="2" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="D23" s="2" t="s"/>
+      <x:c r="D23" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4331415857</x:v>
+        <x:v>45912.3074484954</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1878,14 +1880,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D24" s="2" t="s"/>
       <x:c r="E24" s="3">
-        <x:v>45907.6646548264</x:v>
+        <x:v>45907.4331415857</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1908,16 +1910,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="D25" s="2" t="s">
         <x:v>74</x:v>
       </x:c>
+      <x:c r="D25" s="2" t="s"/>
       <x:c r="E25" s="3">
-        <x:v>45912.3084855671</x:v>
+        <x:v>45907.6646548264</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1949,7 +1949,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6656153935</x:v>
+        <x:v>45912.3084855671</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1981,7 +1981,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4218979514</x:v>
+        <x:v>45906.6656153935</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -2013,7 +2013,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6646386574</x:v>
+        <x:v>45907.4218979514</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -2045,7 +2045,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6651743056</x:v>
+        <x:v>45906.6646386574</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -2077,7 +2077,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6660037384</x:v>
+        <x:v>45907.6651743056</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -2109,7 +2109,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45912.306665081</x:v>
+        <x:v>45906.6660037384</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -2141,7 +2141,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45912.3085414352</x:v>
+        <x:v>45912.306665081</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -2173,7 +2173,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6650891204</x:v>
+        <x:v>45912.3085414352</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2205,7 +2205,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4206363079</x:v>
+        <x:v>45907.6650891204</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -3035,7 +3035,7 @@
         <x:v>178</x:v>
       </x:c>
       <x:c r="E60" s="3">
-        <x:v>45907.6665090625</x:v>
+        <x:v>45927.4619000347</x:v>
       </x:c>
       <x:c r="F60" s="2" t="s"/>
       <x:c r="G60" s="2" t="s"/>
@@ -3067,7 +3067,7 @@
         <x:v>181</x:v>
       </x:c>
       <x:c r="E61" s="3">
-        <x:v>45914.4662671644</x:v>
+        <x:v>45907.6665090625</x:v>
       </x:c>
       <x:c r="F61" s="2" t="s"/>
       <x:c r="G61" s="2" t="s"/>
@@ -3099,7 +3099,7 @@
         <x:v>184</x:v>
       </x:c>
       <x:c r="E62" s="3">
-        <x:v>45907.4873520023</x:v>
+        <x:v>45914.4662671644</x:v>
       </x:c>
       <x:c r="F62" s="2" t="s"/>
       <x:c r="G62" s="2" t="s"/>

--- a/downloaded_files/CMPS202_Lecture-35674.xlsx
+++ b/downloaded_files/CMPS202_Lecture-35674.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="221">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -177,15 +177,6 @@
     <x:t>GOURG</x:t>
   </x:si>
   <x:si>
-    <x:t>1210214</x:t>
-  </x:si>
-  <x:si>
-    <x:t>حازم محمد عبد السلام لطفي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hazem mohamed abdelsalam lotfy</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240048</x:t>
   </x:si>
   <x:si>
@@ -288,6 +279,15 @@
     <x:t>Abdulrahman Ahmed Mahmoud Ali Salama</x:t>
   </x:si>
   <x:si>
+    <x:t>1240230</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبد الرحمن ثامر محمد الذهبي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman thamer mohamed elzahaby</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220178</x:t>
   </x:si>
   <x:si>
@@ -436,15 +436,6 @@
   </x:si>
   <x:si>
     <x:t>×  Lojain Mohamed Gad Morshedy Omar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220269</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مازن احمد فؤاد عبد الوهاب</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mazen Ahmed Fouad Abdelwahab</x:t>
   </x:si>
   <x:si>
     <x:t>1220271</x:t>
@@ -794,7 +785,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E74" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E73" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -1094,7 +1085,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T74"/>
+  <x:dimension ref="A1:T73"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1249,7 +1240,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45927.4188121181</x:v>
+        <x:v>45927.9039830208</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1697,7 +1688,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45927.6616390857</x:v>
+        <x:v>45912.3064025463</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1729,7 +1720,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.3064025463</x:v>
+        <x:v>45927.4241120023</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1761,7 +1752,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45927.4241120023</x:v>
+        <x:v>45907.6651212616</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1793,7 +1784,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6651212616</x:v>
+        <x:v>45912.3068809028</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1825,7 +1816,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45912.3068809028</x:v>
+        <x:v>45912.3074484954</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1853,11 +1844,9 @@
       <x:c r="C23" s="2" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
+      <x:c r="D23" s="2" t="s"/>
       <x:c r="E23" s="3">
-        <x:v>45912.3074484954</x:v>
+        <x:v>45907.4331415857</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1880,14 +1869,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
         <x:v>71</x:v>
-      </x:c>
-      <x:c r="C24" s="2" t="s">
-        <x:v>72</x:v>
       </x:c>
       <x:c r="D24" s="2" t="s"/>
       <x:c r="E24" s="3">
-        <x:v>45907.4331415857</x:v>
+        <x:v>45907.6646548264</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1910,14 +1899,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
         <x:v>73</x:v>
       </x:c>
-      <x:c r="C25" s="2" t="s">
+      <x:c r="D25" s="2" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="D25" s="2" t="s"/>
       <x:c r="E25" s="3">
-        <x:v>45907.6646548264</x:v>
+        <x:v>45912.3084855671</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1949,7 +1940,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45912.3084855671</x:v>
+        <x:v>45906.6656153935</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1981,7 +1972,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6656153935</x:v>
+        <x:v>45907.4218979514</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -2013,7 +2004,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4218979514</x:v>
+        <x:v>45906.6646386574</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -2045,7 +2036,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6646386574</x:v>
+        <x:v>45907.6651743056</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -2077,7 +2068,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6651743056</x:v>
+        <x:v>45927.8034452199</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -2651,7 +2642,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45907.4226036227</x:v>
+        <x:v>45907.4152066319</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2683,7 +2674,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45907.4152066319</x:v>
+        <x:v>45912.306596412</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2715,7 +2706,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45912.306596412</x:v>
+        <x:v>45912.3070352662</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2747,7 +2738,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45912.3070352662</x:v>
+        <x:v>45907.4200544329</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2779,7 +2770,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45907.4200544329</x:v>
+        <x:v>45907.6646984606</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2811,7 +2802,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45907.6646984606</x:v>
+        <x:v>45906.7421650463</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2843,7 +2834,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45906.7421650463</x:v>
+        <x:v>45906.665140625</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2875,7 +2866,7 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45906.665140625</x:v>
+        <x:v>45907.6651833681</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2907,7 +2898,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45907.6651833681</x:v>
+        <x:v>45912.3061332176</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -2939,7 +2930,7 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45912.3061332176</x:v>
+        <x:v>45907.6649017708</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -2971,7 +2962,7 @@
         <x:v>172</x:v>
       </x:c>
       <x:c r="E58" s="3">
-        <x:v>45907.6649017708</x:v>
+        <x:v>45916.5591605671</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -3003,7 +2994,7 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="E59" s="3">
-        <x:v>45916.5591605671</x:v>
+        <x:v>45927.4619000347</x:v>
       </x:c>
       <x:c r="F59" s="2" t="s"/>
       <x:c r="G59" s="2" t="s"/>
@@ -3035,7 +3026,7 @@
         <x:v>178</x:v>
       </x:c>
       <x:c r="E60" s="3">
-        <x:v>45927.4619000347</x:v>
+        <x:v>45907.6665090625</x:v>
       </x:c>
       <x:c r="F60" s="2" t="s"/>
       <x:c r="G60" s="2" t="s"/>
@@ -3067,7 +3058,7 @@
         <x:v>181</x:v>
       </x:c>
       <x:c r="E61" s="3">
-        <x:v>45907.6665090625</x:v>
+        <x:v>45914.4662671644</x:v>
       </x:c>
       <x:c r="F61" s="2" t="s"/>
       <x:c r="G61" s="2" t="s"/>
@@ -3099,7 +3090,7 @@
         <x:v>184</x:v>
       </x:c>
       <x:c r="E62" s="3">
-        <x:v>45914.4662671644</x:v>
+        <x:v>45907.414558912</x:v>
       </x:c>
       <x:c r="F62" s="2" t="s"/>
       <x:c r="G62" s="2" t="s"/>
@@ -3131,7 +3122,7 @@
         <x:v>187</x:v>
       </x:c>
       <x:c r="E63" s="3">
-        <x:v>45907.414558912</x:v>
+        <x:v>45907.4209824884</x:v>
       </x:c>
       <x:c r="F63" s="2" t="s"/>
       <x:c r="G63" s="2" t="s"/>
@@ -3163,7 +3154,7 @@
         <x:v>190</x:v>
       </x:c>
       <x:c r="E64" s="3">
-        <x:v>45907.4209824884</x:v>
+        <x:v>45907.6646564468</x:v>
       </x:c>
       <x:c r="F64" s="2" t="s"/>
       <x:c r="G64" s="2" t="s"/>
@@ -3195,7 +3186,7 @@
         <x:v>193</x:v>
       </x:c>
       <x:c r="E65" s="3">
-        <x:v>45907.6646564468</x:v>
+        <x:v>45912.3067289005</x:v>
       </x:c>
       <x:c r="F65" s="2" t="s"/>
       <x:c r="G65" s="2" t="s"/>
@@ -3227,7 +3218,7 @@
         <x:v>196</x:v>
       </x:c>
       <x:c r="E66" s="3">
-        <x:v>45912.3067289005</x:v>
+        <x:v>45907.4417715625</x:v>
       </x:c>
       <x:c r="F66" s="2" t="s"/>
       <x:c r="G66" s="2" t="s"/>
@@ -3259,7 +3250,7 @@
         <x:v>199</x:v>
       </x:c>
       <x:c r="E67" s="3">
-        <x:v>45907.4417715625</x:v>
+        <x:v>45907.4144861458</x:v>
       </x:c>
       <x:c r="F67" s="2" t="s"/>
       <x:c r="G67" s="2" t="s"/>
@@ -3291,7 +3282,7 @@
         <x:v>202</x:v>
       </x:c>
       <x:c r="E68" s="3">
-        <x:v>45907.4144861458</x:v>
+        <x:v>45907.4200031597</x:v>
       </x:c>
       <x:c r="F68" s="2" t="s"/>
       <x:c r="G68" s="2" t="s"/>
@@ -3323,7 +3314,7 @@
         <x:v>205</x:v>
       </x:c>
       <x:c r="E69" s="3">
-        <x:v>45907.4200031597</x:v>
+        <x:v>45906.6645776968</x:v>
       </x:c>
       <x:c r="F69" s="2" t="s"/>
       <x:c r="G69" s="2" t="s"/>
@@ -3355,7 +3346,7 @@
         <x:v>208</x:v>
       </x:c>
       <x:c r="E70" s="3">
-        <x:v>45906.6645776968</x:v>
+        <x:v>45907.4276712963</x:v>
       </x:c>
       <x:c r="F70" s="2" t="s"/>
       <x:c r="G70" s="2" t="s"/>
@@ -3387,7 +3378,7 @@
         <x:v>211</x:v>
       </x:c>
       <x:c r="E71" s="3">
-        <x:v>45907.4276712963</x:v>
+        <x:v>45913.7205501968</x:v>
       </x:c>
       <x:c r="F71" s="2" t="s"/>
       <x:c r="G71" s="2" t="s"/>
@@ -3419,7 +3410,7 @@
         <x:v>214</x:v>
       </x:c>
       <x:c r="E72" s="3">
-        <x:v>45913.7205501968</x:v>
+        <x:v>45907.6652498495</x:v>
       </x:c>
       <x:c r="F72" s="2" t="s"/>
       <x:c r="G72" s="2" t="s"/>
@@ -3451,7 +3442,7 @@
         <x:v>217</x:v>
       </x:c>
       <x:c r="E73" s="3">
-        <x:v>45907.6652498495</x:v>
+        <x:v>45907.665069213</x:v>
       </x:c>
       <x:c r="F73" s="2" t="s"/>
       <x:c r="G73" s="2" t="s"/>
@@ -3468,38 +3459,6 @@
       <x:c r="R73" s="2" t="s"/>
       <x:c r="S73" s="2" t="s"/>
       <x:c r="T73" s="2" t="s"/>
-    </x:row>
-    <x:row r="74" spans="1:20">
-      <x:c r="A74" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B74" s="2" t="s">
-        <x:v>218</x:v>
-      </x:c>
-      <x:c r="C74" s="2" t="s">
-        <x:v>219</x:v>
-      </x:c>
-      <x:c r="D74" s="2" t="s">
-        <x:v>220</x:v>
-      </x:c>
-      <x:c r="E74" s="3">
-        <x:v>45907.665069213</x:v>
-      </x:c>
-      <x:c r="F74" s="2" t="s"/>
-      <x:c r="G74" s="2" t="s"/>
-      <x:c r="H74" s="2" t="s"/>
-      <x:c r="I74" s="2" t="s"/>
-      <x:c r="J74" s="2" t="s"/>
-      <x:c r="K74" s="2" t="s"/>
-      <x:c r="L74" s="2" t="s"/>
-      <x:c r="M74" s="2" t="s"/>
-      <x:c r="N74" s="2" t="s"/>
-      <x:c r="O74" s="2" t="s"/>
-      <x:c r="P74" s="2" t="s"/>
-      <x:c r="Q74" s="2" t="s"/>
-      <x:c r="R74" s="2" t="s"/>
-      <x:c r="S74" s="2" t="s"/>
-      <x:c r="T74" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS202_Lecture-35674.xlsx
+++ b/downloaded_files/CMPS202_Lecture-35674.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="221">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -232,6 +232,15 @@
   </x:si>
   <x:si>
     <x:t>زياد محمود حشمت سيف النصر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240320</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سلمى عمرو جلال الدين احمد وصال</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Salma Amr Galaleldin Ahmed Wassal</x:t>
   </x:si>
   <x:si>
     <x:t>1240074</x:t>
@@ -785,7 +794,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E73" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E74" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -1085,7 +1094,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T73"/>
+  <x:dimension ref="A1:T74"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1240,7 +1249,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45927.9039830208</x:v>
+        <x:v>45928.6537029745</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1908,7 +1917,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45912.3084855671</x:v>
+        <x:v>45928.3668628125</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1940,7 +1949,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6656153935</x:v>
+        <x:v>45912.3084855671</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1972,7 +1981,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4218979514</x:v>
+        <x:v>45906.6656153935</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -2004,7 +2013,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6646386574</x:v>
+        <x:v>45907.4218979514</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -2036,7 +2045,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6651743056</x:v>
+        <x:v>45906.6646386574</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -2068,7 +2077,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45927.8034452199</x:v>
+        <x:v>45907.6651743056</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -2100,7 +2109,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6660037384</x:v>
+        <x:v>45927.8034452199</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -2132,7 +2141,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45912.306665081</x:v>
+        <x:v>45906.6660037384</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -2164,7 +2173,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45912.3085414352</x:v>
+        <x:v>45912.306665081</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2196,7 +2205,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6650891204</x:v>
+        <x:v>45912.3085414352</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2228,7 +2237,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6651444097</x:v>
+        <x:v>45907.6650891204</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2256,9 +2265,11 @@
       <x:c r="C36" s="2" t="s">
         <x:v>106</x:v>
       </x:c>
-      <x:c r="D36" s="2" t="s"/>
+      <x:c r="D36" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6650284722</x:v>
+        <x:v>45907.6651444097</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2281,16 +2292,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B37" s="2" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C37" s="2" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="D37" s="2" t="s">
         <x:v>109</x:v>
       </x:c>
+      <x:c r="D37" s="2" t="s"/>
       <x:c r="E37" s="3">
-        <x:v>45907.6653128125</x:v>
+        <x:v>45907.6650284722</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2322,7 +2331,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.4181934375</x:v>
+        <x:v>45907.6653128125</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2354,7 +2363,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.425690081</x:v>
+        <x:v>45907.4181934375</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2386,7 +2395,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45912.3071818634</x:v>
+        <x:v>45907.425690081</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2418,7 +2427,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.4200439468</x:v>
+        <x:v>45912.3071818634</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2450,7 +2459,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.4661040509</x:v>
+        <x:v>45907.4200439468</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2482,7 +2491,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.4281835648</x:v>
+        <x:v>45907.4661040509</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2514,7 +2523,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.4453193287</x:v>
+        <x:v>45907.4281835648</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2546,7 +2555,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.6648360764</x:v>
+        <x:v>45907.4453193287</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2578,7 +2587,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.4586340625</x:v>
+        <x:v>45907.6648360764</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2610,7 +2619,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.6651607639</x:v>
+        <x:v>45907.4586340625</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2642,7 +2651,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45907.4152066319</x:v>
+        <x:v>45907.6651607639</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2674,7 +2683,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45912.306596412</x:v>
+        <x:v>45907.4152066319</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2706,7 +2715,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45912.3070352662</x:v>
+        <x:v>45912.306596412</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2738,7 +2747,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45907.4200544329</x:v>
+        <x:v>45912.3070352662</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2770,7 +2779,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45907.6646984606</x:v>
+        <x:v>45907.4200544329</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2802,7 +2811,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45906.7421650463</x:v>
+        <x:v>45907.6646984606</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2834,7 +2843,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45906.665140625</x:v>
+        <x:v>45906.7421650463</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2866,7 +2875,7 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45907.6651833681</x:v>
+        <x:v>45906.665140625</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2898,7 +2907,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45912.3061332176</x:v>
+        <x:v>45907.6651833681</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -2930,7 +2939,7 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45907.6649017708</x:v>
+        <x:v>45912.3061332176</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -2962,7 +2971,7 @@
         <x:v>172</x:v>
       </x:c>
       <x:c r="E58" s="3">
-        <x:v>45916.5591605671</x:v>
+        <x:v>45907.6649017708</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -2994,7 +3003,7 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="E59" s="3">
-        <x:v>45927.4619000347</x:v>
+        <x:v>45916.5591605671</x:v>
       </x:c>
       <x:c r="F59" s="2" t="s"/>
       <x:c r="G59" s="2" t="s"/>
@@ -3026,7 +3035,7 @@
         <x:v>178</x:v>
       </x:c>
       <x:c r="E60" s="3">
-        <x:v>45907.6665090625</x:v>
+        <x:v>45927.4619000347</x:v>
       </x:c>
       <x:c r="F60" s="2" t="s"/>
       <x:c r="G60" s="2" t="s"/>
@@ -3058,7 +3067,7 @@
         <x:v>181</x:v>
       </x:c>
       <x:c r="E61" s="3">
-        <x:v>45914.4662671644</x:v>
+        <x:v>45907.6665090625</x:v>
       </x:c>
       <x:c r="F61" s="2" t="s"/>
       <x:c r="G61" s="2" t="s"/>
@@ -3090,7 +3099,7 @@
         <x:v>184</x:v>
       </x:c>
       <x:c r="E62" s="3">
-        <x:v>45907.414558912</x:v>
+        <x:v>45914.4662671644</x:v>
       </x:c>
       <x:c r="F62" s="2" t="s"/>
       <x:c r="G62" s="2" t="s"/>
@@ -3122,7 +3131,7 @@
         <x:v>187</x:v>
       </x:c>
       <x:c r="E63" s="3">
-        <x:v>45907.4209824884</x:v>
+        <x:v>45907.414558912</x:v>
       </x:c>
       <x:c r="F63" s="2" t="s"/>
       <x:c r="G63" s="2" t="s"/>
@@ -3154,7 +3163,7 @@
         <x:v>190</x:v>
       </x:c>
       <x:c r="E64" s="3">
-        <x:v>45907.6646564468</x:v>
+        <x:v>45907.4209824884</x:v>
       </x:c>
       <x:c r="F64" s="2" t="s"/>
       <x:c r="G64" s="2" t="s"/>
@@ -3186,7 +3195,7 @@
         <x:v>193</x:v>
       </x:c>
       <x:c r="E65" s="3">
-        <x:v>45912.3067289005</x:v>
+        <x:v>45907.6646564468</x:v>
       </x:c>
       <x:c r="F65" s="2" t="s"/>
       <x:c r="G65" s="2" t="s"/>
@@ -3218,7 +3227,7 @@
         <x:v>196</x:v>
       </x:c>
       <x:c r="E66" s="3">
-        <x:v>45907.4417715625</x:v>
+        <x:v>45912.3067289005</x:v>
       </x:c>
       <x:c r="F66" s="2" t="s"/>
       <x:c r="G66" s="2" t="s"/>
@@ -3250,7 +3259,7 @@
         <x:v>199</x:v>
       </x:c>
       <x:c r="E67" s="3">
-        <x:v>45907.4144861458</x:v>
+        <x:v>45907.4417715625</x:v>
       </x:c>
       <x:c r="F67" s="2" t="s"/>
       <x:c r="G67" s="2" t="s"/>
@@ -3282,7 +3291,7 @@
         <x:v>202</x:v>
       </x:c>
       <x:c r="E68" s="3">
-        <x:v>45907.4200031597</x:v>
+        <x:v>45907.4144861458</x:v>
       </x:c>
       <x:c r="F68" s="2" t="s"/>
       <x:c r="G68" s="2" t="s"/>
@@ -3314,7 +3323,7 @@
         <x:v>205</x:v>
       </x:c>
       <x:c r="E69" s="3">
-        <x:v>45906.6645776968</x:v>
+        <x:v>45907.4200031597</x:v>
       </x:c>
       <x:c r="F69" s="2" t="s"/>
       <x:c r="G69" s="2" t="s"/>
@@ -3346,7 +3355,7 @@
         <x:v>208</x:v>
       </x:c>
       <x:c r="E70" s="3">
-        <x:v>45907.4276712963</x:v>
+        <x:v>45906.6645776968</x:v>
       </x:c>
       <x:c r="F70" s="2" t="s"/>
       <x:c r="G70" s="2" t="s"/>
@@ -3378,7 +3387,7 @@
         <x:v>211</x:v>
       </x:c>
       <x:c r="E71" s="3">
-        <x:v>45913.7205501968</x:v>
+        <x:v>45907.4276712963</x:v>
       </x:c>
       <x:c r="F71" s="2" t="s"/>
       <x:c r="G71" s="2" t="s"/>
@@ -3410,7 +3419,7 @@
         <x:v>214</x:v>
       </x:c>
       <x:c r="E72" s="3">
-        <x:v>45907.6652498495</x:v>
+        <x:v>45913.7205501968</x:v>
       </x:c>
       <x:c r="F72" s="2" t="s"/>
       <x:c r="G72" s="2" t="s"/>
@@ -3442,7 +3451,7 @@
         <x:v>217</x:v>
       </x:c>
       <x:c r="E73" s="3">
-        <x:v>45907.665069213</x:v>
+        <x:v>45907.6652498495</x:v>
       </x:c>
       <x:c r="F73" s="2" t="s"/>
       <x:c r="G73" s="2" t="s"/>
@@ -3459,6 +3468,38 @@
       <x:c r="R73" s="2" t="s"/>
       <x:c r="S73" s="2" t="s"/>
       <x:c r="T73" s="2" t="s"/>
+    </x:row>
+    <x:row r="74" spans="1:20">
+      <x:c r="A74" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B74" s="2" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="C74" s="2" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="D74" s="2" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="E74" s="3">
+        <x:v>45907.665069213</x:v>
+      </x:c>
+      <x:c r="F74" s="2" t="s"/>
+      <x:c r="G74" s="2" t="s"/>
+      <x:c r="H74" s="2" t="s"/>
+      <x:c r="I74" s="2" t="s"/>
+      <x:c r="J74" s="2" t="s"/>
+      <x:c r="K74" s="2" t="s"/>
+      <x:c r="L74" s="2" t="s"/>
+      <x:c r="M74" s="2" t="s"/>
+      <x:c r="N74" s="2" t="s"/>
+      <x:c r="O74" s="2" t="s"/>
+      <x:c r="P74" s="2" t="s"/>
+      <x:c r="Q74" s="2" t="s"/>
+      <x:c r="R74" s="2" t="s"/>
+      <x:c r="S74" s="2" t="s"/>
+      <x:c r="T74" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS202_Lecture-35674.xlsx
+++ b/downloaded_files/CMPS202_Lecture-35674.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="221">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -51,15 +51,6 @@
     <x:t>IBRAHIM MAHMOUD IBRAHIM MOHAMED ABOELNOUR</x:t>
   </x:si>
   <x:si>
-    <x:t>1220029</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد اسامه شحاته احمد مرعوه</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Osama Shehata Ahmed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230008</x:t>
   </x:si>
   <x:si>
@@ -78,6 +69,15 @@
     <x:t>Ahmed Tarek Ahmed Ismail</x:t>
   </x:si>
   <x:si>
+    <x:t>1230013</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمد عبدالتواب السيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Mohamed Abdeltawab Alsayed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240017</x:t>
   </x:si>
   <x:si>
@@ -366,15 +366,6 @@
     <x:t>Omar Tarek Refaat Mohamed</x:t>
   </x:si>
   <x:si>
-    <x:t>1230211</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر محمد ابوزيد همام</x:t>
-  </x:si>
-  <x:si>
-    <x:t>omar abozeid hamam</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240114</x:t>
   </x:si>
   <x:si>
@@ -670,15 +661,6 @@
   </x:si>
   <x:si>
     <x:t>Yasmin Serag Mohamed Esmat</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230288</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف ايهاب سمير عفيفى مصطفى الشاهد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>YOUSSEF EHAB SAMIR AFIFY</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -794,7 +776,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E74" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E72" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -1094,7 +1076,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T74"/>
+  <x:dimension ref="A1:T72"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1249,7 +1231,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45928.6537029745</x:v>
+        <x:v>45907.4142915162</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1281,7 +1263,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4142915162</x:v>
+        <x:v>45907.4200812153</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1313,7 +1295,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4200812153</x:v>
+        <x:v>45907.4142394676</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -2395,7 +2377,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.425690081</x:v>
+        <x:v>45912.3071818634</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2427,7 +2409,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45912.3071818634</x:v>
+        <x:v>45907.4200439468</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2459,7 +2441,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.4200439468</x:v>
+        <x:v>45907.4661040509</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2491,7 +2473,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.4661040509</x:v>
+        <x:v>45907.4281835648</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2523,7 +2505,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.4281835648</x:v>
+        <x:v>45907.4453193287</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2555,7 +2537,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.4453193287</x:v>
+        <x:v>45907.6648360764</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2587,7 +2569,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.6648360764</x:v>
+        <x:v>45907.4586340625</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2619,7 +2601,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.4586340625</x:v>
+        <x:v>45907.6651607639</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2651,7 +2633,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45907.6651607639</x:v>
+        <x:v>45907.4152066319</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2683,7 +2665,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45907.4152066319</x:v>
+        <x:v>45912.306596412</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2715,7 +2697,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45912.306596412</x:v>
+        <x:v>45912.3070352662</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2747,7 +2729,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45912.3070352662</x:v>
+        <x:v>45907.4200544329</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2779,7 +2761,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45907.4200544329</x:v>
+        <x:v>45907.6646984606</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2811,7 +2793,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45907.6646984606</x:v>
+        <x:v>45906.7421650463</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2843,7 +2825,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45906.7421650463</x:v>
+        <x:v>45906.665140625</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2875,7 +2857,7 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45906.665140625</x:v>
+        <x:v>45907.6651833681</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2907,7 +2889,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45907.6651833681</x:v>
+        <x:v>45912.3061332176</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -2939,7 +2921,7 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45912.3061332176</x:v>
+        <x:v>45907.6649017708</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -2971,7 +2953,7 @@
         <x:v>172</x:v>
       </x:c>
       <x:c r="E58" s="3">
-        <x:v>45907.6649017708</x:v>
+        <x:v>45916.5591605671</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -3003,7 +2985,7 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="E59" s="3">
-        <x:v>45916.5591605671</x:v>
+        <x:v>45927.4619000347</x:v>
       </x:c>
       <x:c r="F59" s="2" t="s"/>
       <x:c r="G59" s="2" t="s"/>
@@ -3035,7 +3017,7 @@
         <x:v>178</x:v>
       </x:c>
       <x:c r="E60" s="3">
-        <x:v>45927.4619000347</x:v>
+        <x:v>45907.6665090625</x:v>
       </x:c>
       <x:c r="F60" s="2" t="s"/>
       <x:c r="G60" s="2" t="s"/>
@@ -3067,7 +3049,7 @@
         <x:v>181</x:v>
       </x:c>
       <x:c r="E61" s="3">
-        <x:v>45907.6665090625</x:v>
+        <x:v>45914.4662671644</x:v>
       </x:c>
       <x:c r="F61" s="2" t="s"/>
       <x:c r="G61" s="2" t="s"/>
@@ -3099,7 +3081,7 @@
         <x:v>184</x:v>
       </x:c>
       <x:c r="E62" s="3">
-        <x:v>45914.4662671644</x:v>
+        <x:v>45907.414558912</x:v>
       </x:c>
       <x:c r="F62" s="2" t="s"/>
       <x:c r="G62" s="2" t="s"/>
@@ -3131,7 +3113,7 @@
         <x:v>187</x:v>
       </x:c>
       <x:c r="E63" s="3">
-        <x:v>45907.414558912</x:v>
+        <x:v>45907.4209824884</x:v>
       </x:c>
       <x:c r="F63" s="2" t="s"/>
       <x:c r="G63" s="2" t="s"/>
@@ -3163,7 +3145,7 @@
         <x:v>190</x:v>
       </x:c>
       <x:c r="E64" s="3">
-        <x:v>45907.4209824884</x:v>
+        <x:v>45907.6646564468</x:v>
       </x:c>
       <x:c r="F64" s="2" t="s"/>
       <x:c r="G64" s="2" t="s"/>
@@ -3195,7 +3177,7 @@
         <x:v>193</x:v>
       </x:c>
       <x:c r="E65" s="3">
-        <x:v>45907.6646564468</x:v>
+        <x:v>45912.3067289005</x:v>
       </x:c>
       <x:c r="F65" s="2" t="s"/>
       <x:c r="G65" s="2" t="s"/>
@@ -3227,7 +3209,7 @@
         <x:v>196</x:v>
       </x:c>
       <x:c r="E66" s="3">
-        <x:v>45912.3067289005</x:v>
+        <x:v>45907.4417715625</x:v>
       </x:c>
       <x:c r="F66" s="2" t="s"/>
       <x:c r="G66" s="2" t="s"/>
@@ -3259,7 +3241,7 @@
         <x:v>199</x:v>
       </x:c>
       <x:c r="E67" s="3">
-        <x:v>45907.4417715625</x:v>
+        <x:v>45907.4144861458</x:v>
       </x:c>
       <x:c r="F67" s="2" t="s"/>
       <x:c r="G67" s="2" t="s"/>
@@ -3291,7 +3273,7 @@
         <x:v>202</x:v>
       </x:c>
       <x:c r="E68" s="3">
-        <x:v>45907.4144861458</x:v>
+        <x:v>45907.4200031597</x:v>
       </x:c>
       <x:c r="F68" s="2" t="s"/>
       <x:c r="G68" s="2" t="s"/>
@@ -3323,7 +3305,7 @@
         <x:v>205</x:v>
       </x:c>
       <x:c r="E69" s="3">
-        <x:v>45907.4200031597</x:v>
+        <x:v>45906.6645776968</x:v>
       </x:c>
       <x:c r="F69" s="2" t="s"/>
       <x:c r="G69" s="2" t="s"/>
@@ -3355,7 +3337,7 @@
         <x:v>208</x:v>
       </x:c>
       <x:c r="E70" s="3">
-        <x:v>45906.6645776968</x:v>
+        <x:v>45907.4276712963</x:v>
       </x:c>
       <x:c r="F70" s="2" t="s"/>
       <x:c r="G70" s="2" t="s"/>
@@ -3387,7 +3369,7 @@
         <x:v>211</x:v>
       </x:c>
       <x:c r="E71" s="3">
-        <x:v>45907.4276712963</x:v>
+        <x:v>45913.7205501968</x:v>
       </x:c>
       <x:c r="F71" s="2" t="s"/>
       <x:c r="G71" s="2" t="s"/>
@@ -3419,7 +3401,7 @@
         <x:v>214</x:v>
       </x:c>
       <x:c r="E72" s="3">
-        <x:v>45913.7205501968</x:v>
+        <x:v>45907.6652498495</x:v>
       </x:c>
       <x:c r="F72" s="2" t="s"/>
       <x:c r="G72" s="2" t="s"/>
@@ -3436,70 +3418,6 @@
       <x:c r="R72" s="2" t="s"/>
       <x:c r="S72" s="2" t="s"/>
       <x:c r="T72" s="2" t="s"/>
-    </x:row>
-    <x:row r="73" spans="1:20">
-      <x:c r="A73" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B73" s="2" t="s">
-        <x:v>215</x:v>
-      </x:c>
-      <x:c r="C73" s="2" t="s">
-        <x:v>216</x:v>
-      </x:c>
-      <x:c r="D73" s="2" t="s">
-        <x:v>217</x:v>
-      </x:c>
-      <x:c r="E73" s="3">
-        <x:v>45907.6652498495</x:v>
-      </x:c>
-      <x:c r="F73" s="2" t="s"/>
-      <x:c r="G73" s="2" t="s"/>
-      <x:c r="H73" s="2" t="s"/>
-      <x:c r="I73" s="2" t="s"/>
-      <x:c r="J73" s="2" t="s"/>
-      <x:c r="K73" s="2" t="s"/>
-      <x:c r="L73" s="2" t="s"/>
-      <x:c r="M73" s="2" t="s"/>
-      <x:c r="N73" s="2" t="s"/>
-      <x:c r="O73" s="2" t="s"/>
-      <x:c r="P73" s="2" t="s"/>
-      <x:c r="Q73" s="2" t="s"/>
-      <x:c r="R73" s="2" t="s"/>
-      <x:c r="S73" s="2" t="s"/>
-      <x:c r="T73" s="2" t="s"/>
-    </x:row>
-    <x:row r="74" spans="1:20">
-      <x:c r="A74" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B74" s="2" t="s">
-        <x:v>218</x:v>
-      </x:c>
-      <x:c r="C74" s="2" t="s">
-        <x:v>219</x:v>
-      </x:c>
-      <x:c r="D74" s="2" t="s">
-        <x:v>220</x:v>
-      </x:c>
-      <x:c r="E74" s="3">
-        <x:v>45907.665069213</x:v>
-      </x:c>
-      <x:c r="F74" s="2" t="s"/>
-      <x:c r="G74" s="2" t="s"/>
-      <x:c r="H74" s="2" t="s"/>
-      <x:c r="I74" s="2" t="s"/>
-      <x:c r="J74" s="2" t="s"/>
-      <x:c r="K74" s="2" t="s"/>
-      <x:c r="L74" s="2" t="s"/>
-      <x:c r="M74" s="2" t="s"/>
-      <x:c r="N74" s="2" t="s"/>
-      <x:c r="O74" s="2" t="s"/>
-      <x:c r="P74" s="2" t="s"/>
-      <x:c r="Q74" s="2" t="s"/>
-      <x:c r="R74" s="2" t="s"/>
-      <x:c r="S74" s="2" t="s"/>
-      <x:c r="T74" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS202_Lecture-35674.xlsx
+++ b/downloaded_files/CMPS202_Lecture-35674.xlsx
@@ -42,15 +42,6 @@
     <x:t>Ahmed Mohamed Sayed Saber</x:t>
   </x:si>
   <x:si>
-    <x:t>4230136</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ابراهيم محمود ابراهيم محمد ابوالنور</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IBRAHIM MAHMOUD IBRAHIM MOHAMED ABOELNOUR</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230008</x:t>
   </x:si>
   <x:si>
@@ -438,6 +429,15 @@
     <x:t>×  Lojain Mohamed Gad Morshedy Omar</x:t>
   </x:si>
   <x:si>
+    <x:t>1220269</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مازن احمد فؤاد عبد الوهاب</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mazen Ahmed Fouad Abdelwahab</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220271</x:t>
   </x:si>
   <x:si>
@@ -519,15 +519,6 @@
     <x:t>Marwan Mohamed Abdel Aty Sayed</x:t>
   </x:si>
   <x:si>
-    <x:t>1230255</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مريم أيمن عمران عبدالله</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mariam Ayman Omran Abdallah</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230256</x:t>
   </x:si>
   <x:si>
@@ -580,6 +571,15 @@
   </x:si>
   <x:si>
     <x:t>Malak Mohsen Hussein Ismail Kazem</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230307</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ملك هاني يسري عزو</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MALAK</x:t>
   </x:si>
   <x:si>
     <x:t>1230268</x:t>
@@ -1199,7 +1199,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.4194545486</x:v>
+        <x:v>45907.4142915162</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -1231,7 +1231,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.4142915162</x:v>
+        <x:v>45907.4200812153</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1263,7 +1263,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4200812153</x:v>
+        <x:v>45907.4142394676</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1295,7 +1295,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4142394676</x:v>
+        <x:v>45907.6646043981</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1327,7 +1327,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6646043981</x:v>
+        <x:v>45912.3090423958</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1359,7 +1359,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45912.3090423958</x:v>
+        <x:v>45912.3069769676</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1391,7 +1391,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45912.3069769676</x:v>
+        <x:v>45907.4292462963</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1423,7 +1423,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4292462963</x:v>
+        <x:v>45907.4210927431</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1455,7 +1455,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4210927431</x:v>
+        <x:v>45907.4191084491</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1487,7 +1487,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4191084491</x:v>
+        <x:v>45906.6650102199</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1519,7 +1519,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6650102199</x:v>
+        <x:v>45906.6711699421</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1551,7 +1551,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6711699421</x:v>
+        <x:v>45907.6647150463</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1583,7 +1583,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6647150463</x:v>
+        <x:v>45907.4166763542</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1615,7 +1615,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4166763542</x:v>
+        <x:v>45909.4156690625</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1647,7 +1647,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45909.4156690625</x:v>
+        <x:v>45912.3064025463</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1679,7 +1679,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.3064025463</x:v>
+        <x:v>45927.4241120023</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1711,7 +1711,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45927.4241120023</x:v>
+        <x:v>45907.6651212616</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1743,7 +1743,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6651212616</x:v>
+        <x:v>45912.3068809028</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1775,7 +1775,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45912.3068809028</x:v>
+        <x:v>45912.3074484954</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1803,11 +1803,9 @@
       <x:c r="C22" s="2" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="D22" s="2" t="s">
-        <x:v>67</x:v>
-      </x:c>
+      <x:c r="D22" s="2" t="s"/>
       <x:c r="E22" s="3">
-        <x:v>45912.3074484954</x:v>
+        <x:v>45907.4331415857</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1830,14 +1828,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
         <x:v>68</x:v>
-      </x:c>
-      <x:c r="C23" s="2" t="s">
-        <x:v>69</x:v>
       </x:c>
       <x:c r="D23" s="2" t="s"/>
       <x:c r="E23" s="3">
-        <x:v>45907.4331415857</x:v>
+        <x:v>45907.6646548264</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1860,14 +1858,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="C24" s="2" t="s">
+      <x:c r="D24" s="2" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="D24" s="2" t="s"/>
       <x:c r="E24" s="3">
-        <x:v>45907.6646548264</x:v>
+        <x:v>45928.3668628125</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1899,7 +1899,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45928.3668628125</x:v>
+        <x:v>45912.3084855671</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1931,7 +1931,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45912.3084855671</x:v>
+        <x:v>45906.6656153935</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1963,7 +1963,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6656153935</x:v>
+        <x:v>45907.4218979514</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1995,7 +1995,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4218979514</x:v>
+        <x:v>45906.6646386574</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -2027,7 +2027,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6646386574</x:v>
+        <x:v>45907.6651743056</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -2059,7 +2059,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6651743056</x:v>
+        <x:v>45927.8034452199</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -2091,7 +2091,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45927.8034452199</x:v>
+        <x:v>45906.6660037384</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -2123,7 +2123,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.6660037384</x:v>
+        <x:v>45912.306665081</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -2155,7 +2155,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45912.306665081</x:v>
+        <x:v>45912.3085414352</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2187,7 +2187,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45912.3085414352</x:v>
+        <x:v>45907.6650891204</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2219,7 +2219,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6650891204</x:v>
+        <x:v>45907.6651444097</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2247,11 +2247,9 @@
       <x:c r="C36" s="2" t="s">
         <x:v>106</x:v>
       </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>107</x:v>
-      </x:c>
+      <x:c r="D36" s="2" t="s"/>
       <x:c r="E36" s="3">
-        <x:v>45907.6651444097</x:v>
+        <x:v>45907.6650284722</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2274,14 +2272,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B37" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
         <x:v>108</x:v>
       </x:c>
-      <x:c r="C37" s="2" t="s">
+      <x:c r="D37" s="2" t="s">
         <x:v>109</x:v>
       </x:c>
-      <x:c r="D37" s="2" t="s"/>
       <x:c r="E37" s="3">
-        <x:v>45907.6650284722</x:v>
+        <x:v>45907.6653128125</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2313,7 +2313,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6653128125</x:v>
+        <x:v>45907.4181934375</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2345,7 +2345,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.4181934375</x:v>
+        <x:v>45912.3071818634</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2377,7 +2377,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45912.3071818634</x:v>
+        <x:v>45907.4200439468</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2409,7 +2409,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.4200439468</x:v>
+        <x:v>45907.4661040509</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2441,7 +2441,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.4661040509</x:v>
+        <x:v>45907.4281835648</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2473,7 +2473,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.4281835648</x:v>
+        <x:v>45907.4453193287</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2505,7 +2505,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.4453193287</x:v>
+        <x:v>45907.6648360764</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2537,7 +2537,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.6648360764</x:v>
+        <x:v>45907.4586340625</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2569,7 +2569,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.4586340625</x:v>
+        <x:v>45907.6651607639</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2601,7 +2601,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.6651607639</x:v>
+        <x:v>45929.2926353009</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2921,7 +2921,7 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45907.6649017708</x:v>
+        <x:v>45916.5591605671</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -2953,7 +2953,7 @@
         <x:v>172</x:v>
       </x:c>
       <x:c r="E58" s="3">
-        <x:v>45916.5591605671</x:v>
+        <x:v>45927.4619000347</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -2985,7 +2985,7 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="E59" s="3">
-        <x:v>45927.4619000347</x:v>
+        <x:v>45907.6665090625</x:v>
       </x:c>
       <x:c r="F59" s="2" t="s"/>
       <x:c r="G59" s="2" t="s"/>
@@ -3017,7 +3017,7 @@
         <x:v>178</x:v>
       </x:c>
       <x:c r="E60" s="3">
-        <x:v>45907.6665090625</x:v>
+        <x:v>45914.4662671644</x:v>
       </x:c>
       <x:c r="F60" s="2" t="s"/>
       <x:c r="G60" s="2" t="s"/>
@@ -3049,7 +3049,7 @@
         <x:v>181</x:v>
       </x:c>
       <x:c r="E61" s="3">
-        <x:v>45914.4662671644</x:v>
+        <x:v>45907.414558912</x:v>
       </x:c>
       <x:c r="F61" s="2" t="s"/>
       <x:c r="G61" s="2" t="s"/>
@@ -3081,7 +3081,7 @@
         <x:v>184</x:v>
       </x:c>
       <x:c r="E62" s="3">
-        <x:v>45907.414558912</x:v>
+        <x:v>45907.4209824884</x:v>
       </x:c>
       <x:c r="F62" s="2" t="s"/>
       <x:c r="G62" s="2" t="s"/>
@@ -3113,7 +3113,7 @@
         <x:v>187</x:v>
       </x:c>
       <x:c r="E63" s="3">
-        <x:v>45907.4209824884</x:v>
+        <x:v>45929.5419351042</x:v>
       </x:c>
       <x:c r="F63" s="2" t="s"/>
       <x:c r="G63" s="2" t="s"/>

--- a/downloaded_files/CMPS202_Lecture-35674.xlsx
+++ b/downloaded_files/CMPS202_Lecture-35674.xlsx
@@ -39,7 +39,7 @@
     <x:t>أحمد محمد سيد صابر محمد</x:t>
   </x:si>
   <x:si>
-    <x:t>Ahmed Mohamed Sayed Saber</x:t>
+    <x:t xml:space="preserve">Ahmed Mohamed Sayed Saber Mohamed </x:t>
   </x:si>
   <x:si>
     <x:t>1230008</x:t>
@@ -120,7 +120,7 @@
     <x:t>بيشوي ماهر فؤاد بدرس بدروس</x:t>
   </x:si>
   <x:si>
-    <x:t>Beshoy Maher Fouad Badras</x:t>
+    <x:t>Beshoy Maher Fouad Badras Badros</x:t>
   </x:si>
   <x:si>
     <x:t>1210210</x:t>

--- a/downloaded_files/CMPS202_Lecture-35674.xlsx
+++ b/downloaded_files/CMPS202_Lecture-35674.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="216">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -222,7 +222,10 @@
     <x:t>1240195</x:t>
   </x:si>
   <x:si>
-    <x:t>زياد محمود حشمت سيف النصر</x:t>
+    <x:t>زياد محمود حشمت سيف النصر عبد الرحيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zeyad Mahmoud Hishmat Seifelnasr Abdelraheem</x:t>
   </x:si>
   <x:si>
     <x:t>1240320</x:t>
@@ -1833,7 +1836,9 @@
       <x:c r="C23" s="2" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="D23" s="2" t="s"/>
+      <x:c r="D23" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
       <x:c r="E23" s="3">
         <x:v>45907.6646548264</x:v>
       </x:c>
@@ -1858,13 +1863,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D24" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
         <x:v>45928.3668628125</x:v>
@@ -1890,13 +1895,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D25" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
         <x:v>45912.3084855671</x:v>
@@ -1922,13 +1927,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D26" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
         <x:v>45906.6656153935</x:v>
@@ -1954,13 +1959,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C27" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D27" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
         <x:v>45907.4218979514</x:v>
@@ -1986,13 +1991,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D28" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
         <x:v>45906.6646386574</x:v>
@@ -2018,13 +2023,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C29" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D29" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
         <x:v>45907.6651743056</x:v>
@@ -2050,13 +2055,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C30" s="2" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D30" s="2" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
         <x:v>45927.8034452199</x:v>
@@ -2082,13 +2087,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C31" s="2" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D31" s="2" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
         <x:v>45906.6660037384</x:v>
@@ -2114,13 +2119,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C32" s="2" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D32" s="2" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
         <x:v>45912.306665081</x:v>
@@ -2146,13 +2151,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C33" s="2" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D33" s="2" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
         <x:v>45912.3085414352</x:v>
@@ -2178,13 +2183,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C34" s="2" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D34" s="2" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
         <x:v>45907.6650891204</x:v>
@@ -2210,13 +2215,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C35" s="2" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D35" s="2" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
         <x:v>45907.6651444097</x:v>
@@ -2242,10 +2247,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C36" s="2" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="D36" s="2" t="s"/>
       <x:c r="E36" s="3">
@@ -2272,13 +2277,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B37" s="2" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C37" s="2" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D37" s="2" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
         <x:v>45907.6653128125</x:v>
@@ -2304,13 +2309,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B38" s="2" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C38" s="2" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="D38" s="2" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
         <x:v>45907.4181934375</x:v>
@@ -2336,13 +2341,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B39" s="2" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C39" s="2" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="D39" s="2" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E39" s="3">
         <x:v>45912.3071818634</x:v>
@@ -2368,13 +2373,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B40" s="2" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C40" s="2" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D40" s="2" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E40" s="3">
         <x:v>45907.4200439468</x:v>
@@ -2400,13 +2405,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B41" s="2" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="C41" s="2" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D41" s="2" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E41" s="3">
         <x:v>45907.4661040509</x:v>
@@ -2432,13 +2437,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B42" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C42" s="2" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="D42" s="2" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="E42" s="3">
         <x:v>45907.4281835648</x:v>
@@ -2464,13 +2469,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B43" s="2" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C43" s="2" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="D43" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E43" s="3">
         <x:v>45907.4453193287</x:v>
@@ -2496,13 +2501,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B44" s="2" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C44" s="2" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D44" s="2" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="E44" s="3">
         <x:v>45907.6648360764</x:v>
@@ -2528,13 +2533,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B45" s="2" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C45" s="2" t="s">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D45" s="2" t="s">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E45" s="3">
         <x:v>45907.4586340625</x:v>
@@ -2560,13 +2565,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B46" s="2" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C46" s="2" t="s">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D46" s="2" t="s">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="E46" s="3">
         <x:v>45907.6651607639</x:v>
@@ -2592,13 +2597,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B47" s="2" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="C47" s="2" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="D47" s="2" t="s">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="E47" s="3">
         <x:v>45929.2926353009</x:v>
@@ -2624,13 +2629,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B48" s="2" t="s">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="C48" s="2" t="s">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="D48" s="2" t="s">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="E48" s="3">
         <x:v>45907.4152066319</x:v>
@@ -2656,13 +2661,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B49" s="2" t="s">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="C49" s="2" t="s">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="D49" s="2" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="E49" s="3">
         <x:v>45912.306596412</x:v>
@@ -2688,13 +2693,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B50" s="2" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="C50" s="2" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="D50" s="2" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="E50" s="3">
         <x:v>45912.3070352662</x:v>
@@ -2720,13 +2725,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B51" s="2" t="s">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="C51" s="2" t="s">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D51" s="2" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="E51" s="3">
         <x:v>45907.4200544329</x:v>
@@ -2752,13 +2757,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B52" s="2" t="s">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="C52" s="2" t="s">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="D52" s="2" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="E52" s="3">
         <x:v>45907.6646984606</x:v>
@@ -2784,13 +2789,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B53" s="2" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="C53" s="2" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D53" s="2" t="s">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="E53" s="3">
         <x:v>45906.7421650463</x:v>
@@ -2816,13 +2821,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B54" s="2" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="C54" s="2" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="D54" s="2" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="E54" s="3">
         <x:v>45906.665140625</x:v>
@@ -2848,13 +2853,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B55" s="2" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="C55" s="2" t="s">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="D55" s="2" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="E55" s="3">
         <x:v>45907.6651833681</x:v>
@@ -2880,13 +2885,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B56" s="2" t="s">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C56" s="2" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="D56" s="2" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="E56" s="3">
         <x:v>45912.3061332176</x:v>
@@ -2912,13 +2917,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B57" s="2" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="C57" s="2" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D57" s="2" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="E57" s="3">
         <x:v>45916.5591605671</x:v>
@@ -2944,13 +2949,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B58" s="2" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="C58" s="2" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="D58" s="2" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="E58" s="3">
         <x:v>45927.4619000347</x:v>
@@ -2976,13 +2981,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B59" s="2" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="C59" s="2" t="s">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="D59" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="E59" s="3">
         <x:v>45907.6665090625</x:v>
@@ -3008,13 +3013,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B60" s="2" t="s">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="C60" s="2" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="D60" s="2" t="s">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="E60" s="3">
         <x:v>45914.4662671644</x:v>
@@ -3040,13 +3045,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B61" s="2" t="s">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="C61" s="2" t="s">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="D61" s="2" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="E61" s="3">
         <x:v>45907.414558912</x:v>
@@ -3072,13 +3077,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B62" s="2" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="C62" s="2" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="D62" s="2" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="E62" s="3">
         <x:v>45907.4209824884</x:v>
@@ -3104,13 +3109,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B63" s="2" t="s">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="C63" s="2" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="D63" s="2" t="s">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="E63" s="3">
         <x:v>45929.5419351042</x:v>
@@ -3136,13 +3141,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B64" s="2" t="s">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="C64" s="2" t="s">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="D64" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="E64" s="3">
         <x:v>45907.6646564468</x:v>
@@ -3168,13 +3173,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B65" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="C65" s="2" t="s">
-        <x:v>192</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="D65" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="E65" s="3">
         <x:v>45912.3067289005</x:v>
@@ -3200,13 +3205,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B66" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="C66" s="2" t="s">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="D66" s="2" t="s">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="E66" s="3">
         <x:v>45907.4417715625</x:v>
@@ -3232,13 +3237,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B67" s="2" t="s">
-        <x:v>197</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="C67" s="2" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="D67" s="2" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E67" s="3">
         <x:v>45907.4144861458</x:v>
@@ -3264,13 +3269,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B68" s="2" t="s">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="C68" s="2" t="s">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="D68" s="2" t="s">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="E68" s="3">
         <x:v>45907.4200031597</x:v>
@@ -3296,13 +3301,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B69" s="2" t="s">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="C69" s="2" t="s">
-        <x:v>204</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="D69" s="2" t="s">
-        <x:v>205</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="E69" s="3">
         <x:v>45906.6645776968</x:v>
@@ -3328,13 +3333,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B70" s="2" t="s">
-        <x:v>206</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="C70" s="2" t="s">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="D70" s="2" t="s">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="E70" s="3">
         <x:v>45907.4276712963</x:v>
@@ -3360,13 +3365,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B71" s="2" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="C71" s="2" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="D71" s="2" t="s">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="E71" s="3">
         <x:v>45913.7205501968</x:v>
@@ -3392,13 +3397,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B72" s="2" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="C72" s="2" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="D72" s="2" t="s">
-        <x:v>214</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="E72" s="3">
         <x:v>45907.6652498495</x:v>
